--- a/NonlinearReport/操作流程.xlsx
+++ b/NonlinearReport/操作流程.xlsx
@@ -145,7 +145,37 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">DBE </t>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樓層層間位移</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>最大層間位移</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>story information, story drifts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DBE MCE</t>
     </r>
     <r>
       <rPr>
@@ -164,73 +194,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Sa, story information, story drifts</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>樓層層間位移</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>地震</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Sa, story information, story drifts</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>最大層間位移</t>
+      <t>, story information, story drifts</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -584,7 +548,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -656,10 +620,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -676,7 +640,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
